--- a/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0EC5AD-6F60-C141-8622-CF5EBEC9EF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E180B-2C59-584C-98A6-5CD6527BB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="635">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -1696,7 +1693,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Creation</t>
+    <t>creation</t>
   </si>
   <si>
     <t>1946-09-30</t>
@@ -1714,7 +1711,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>box</t>
   </si>
   <si>
     <t>16</t>
@@ -1946,7 +1943,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2294,7 +2290,7 @@
   <dimension ref="A1:HE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5082,23 +5078,11 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>547</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.2">
@@ -5106,37 +5090,25 @@
         <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" t="s">
         <v>550</v>
       </c>
-      <c r="F7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>551</v>
       </c>
-      <c r="I7" t="s">
-        <v>552</v>
-      </c>
       <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>547</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:213" x14ac:dyDescent="0.2">
@@ -5144,85 +5116,85 @@
         <v>542</v>
       </c>
       <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" t="s">
         <v>553</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>554</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>555</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>556</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD8" t="s">
         <v>557</v>
       </c>
-      <c r="K8" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>558</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>559</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI8" t="s">
         <v>560</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="BI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK8" t="s">
         <v>561</v>
       </c>
-      <c r="BH8" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>549</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BT8" t="s">
         <v>562</v>
       </c>
-      <c r="BL8" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>563</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>564</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="CM8" t="s">
         <v>565</v>
       </c>
-      <c r="CM8" t="s">
+      <c r="CN8" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE8" t="s">
         <v>566</v>
       </c>
-      <c r="CN8" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE8" t="s">
+      <c r="EF8" t="s">
         <v>567</v>
       </c>
-      <c r="EF8" t="s">
+      <c r="EG8" t="s">
         <v>568</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>569</v>
       </c>
-      <c r="EH8" t="s">
+      <c r="FO8" t="s">
         <v>570</v>
       </c>
-      <c r="FO8" t="s">
+      <c r="FP8" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA8" t="s">
         <v>571</v>
-      </c>
-      <c r="FP8" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>572</v>
       </c>
       <c r="GB8" t="s">
         <v>545</v>
@@ -5236,85 +5208,85 @@
         <v>542</v>
       </c>
       <c r="E9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" t="s">
         <v>573</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>574</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE9" t="s">
         <v>575</v>
       </c>
-      <c r="H9" t="s">
-        <v>556</v>
-      </c>
-      <c r="I9" t="s">
-        <v>557</v>
-      </c>
-      <c r="K9" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK9" t="s">
         <v>576</v>
       </c>
-      <c r="AG9" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>549</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BT9" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM9" t="s">
         <v>577</v>
       </c>
-      <c r="BL9" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM9" t="s">
+      <c r="CN9" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>566</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>567</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA9" t="s">
         <v>578</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>567</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>568</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>579</v>
       </c>
       <c r="GB9" t="s">
         <v>545</v>
@@ -5328,85 +5300,85 @@
         <v>542</v>
       </c>
       <c r="E10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" t="s">
         <v>580</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>581</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK10" t="s">
         <v>582</v>
       </c>
-      <c r="H10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" t="s">
-        <v>557</v>
-      </c>
-      <c r="K10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>549</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BT10" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM10" t="s">
         <v>583</v>
       </c>
-      <c r="BL10" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM10" t="s">
+      <c r="CN10" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>566</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>567</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP10" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA10" t="s">
         <v>584</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>567</v>
-      </c>
-      <c r="EF10" t="s">
-        <v>568</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO10" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP10" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>585</v>
       </c>
       <c r="GB10" t="s">
         <v>545</v>
@@ -5420,85 +5392,85 @@
         <v>542</v>
       </c>
       <c r="E11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" t="s">
         <v>586</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>587</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK11" t="s">
         <v>588</v>
       </c>
-      <c r="H11" t="s">
-        <v>556</v>
-      </c>
-      <c r="I11" t="s">
-        <v>557</v>
-      </c>
-      <c r="K11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>549</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BT11" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM11" t="s">
         <v>589</v>
       </c>
-      <c r="BL11" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM11" t="s">
+      <c r="CN11" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>566</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>567</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP11" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA11" t="s">
         <v>590</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>567</v>
-      </c>
-      <c r="EF11" t="s">
-        <v>568</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>591</v>
       </c>
       <c r="GB11" t="s">
         <v>545</v>
@@ -5512,85 +5484,85 @@
         <v>542</v>
       </c>
       <c r="E12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" t="s">
+        <v>573</v>
+      </c>
+      <c r="G12" t="s">
         <v>592</v>
       </c>
-      <c r="F12" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK12" t="s">
         <v>593</v>
       </c>
-      <c r="H12" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" t="s">
-        <v>557</v>
-      </c>
-      <c r="K12" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>549</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BT12" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM12" t="s">
         <v>594</v>
       </c>
-      <c r="BL12" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM12" t="s">
+      <c r="CN12" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE12" t="s">
         <v>595</v>
       </c>
-      <c r="CN12" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE12" t="s">
+      <c r="EF12" t="s">
         <v>596</v>
       </c>
-      <c r="EF12" t="s">
+      <c r="EG12" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP12" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA12" t="s">
         <v>597</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO12" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP12" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA12" t="s">
-        <v>598</v>
       </c>
       <c r="GB12" t="s">
         <v>545</v>
@@ -5604,85 +5576,85 @@
         <v>542</v>
       </c>
       <c r="E13" t="s">
+        <v>598</v>
+      </c>
+      <c r="F13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G13" t="s">
         <v>599</v>
       </c>
-      <c r="F13" t="s">
-        <v>574</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" t="s">
+        <v>556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK13" t="s">
         <v>600</v>
       </c>
-      <c r="H13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I13" t="s">
-        <v>557</v>
-      </c>
-      <c r="K13" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>549</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BT13" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM13" t="s">
         <v>601</v>
       </c>
-      <c r="BL13" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM13" t="s">
+      <c r="CN13" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>595</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>596</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO13" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA13" t="s">
         <v>602</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>596</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>597</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO13" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP13" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA13" t="s">
-        <v>603</v>
       </c>
       <c r="GB13" t="s">
         <v>545</v>
@@ -5696,85 +5668,85 @@
         <v>542</v>
       </c>
       <c r="E14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F14" t="s">
         <v>604</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>605</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" t="s">
+        <v>556</v>
+      </c>
+      <c r="K14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK14" t="s">
         <v>606</v>
       </c>
-      <c r="H14" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" t="s">
-        <v>557</v>
-      </c>
-      <c r="K14" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>549</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BT14" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM14" t="s">
         <v>607</v>
       </c>
-      <c r="BL14" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM14" t="s">
+      <c r="CN14" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>595</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>596</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA14" t="s">
         <v>608</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>596</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>597</v>
-      </c>
-      <c r="EG14" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO14" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP14" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA14" t="s">
-        <v>609</v>
       </c>
       <c r="GB14" t="s">
         <v>545</v>
@@ -5788,85 +5760,85 @@
         <v>542</v>
       </c>
       <c r="E15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F15" t="s">
         <v>610</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>611</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" t="s">
+        <v>556</v>
+      </c>
+      <c r="K15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK15" t="s">
         <v>612</v>
       </c>
-      <c r="H15" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K15" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ15" t="s">
+      <c r="BL15" t="s">
         <v>549</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BT15" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM15" t="s">
         <v>613</v>
       </c>
-      <c r="BL15" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM15" t="s">
+      <c r="CN15" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>595</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>596</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA15" t="s">
         <v>614</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>596</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>597</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO15" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP15" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA15" t="s">
-        <v>615</v>
       </c>
       <c r="GB15" t="s">
         <v>545</v>
@@ -5880,85 +5852,85 @@
         <v>542</v>
       </c>
       <c r="E16" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" t="s">
+        <v>553</v>
+      </c>
+      <c r="G16" t="s">
         <v>616</v>
       </c>
-      <c r="F16" t="s">
-        <v>554</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK16" t="s">
         <v>617</v>
       </c>
-      <c r="H16" t="s">
-        <v>556</v>
-      </c>
-      <c r="I16" t="s">
-        <v>557</v>
-      </c>
-      <c r="K16" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>549</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BT16" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM16" t="s">
         <v>618</v>
       </c>
-      <c r="BL16" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM16" t="s">
+      <c r="CN16" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE16" t="s">
         <v>619</v>
       </c>
-      <c r="CN16" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE16" t="s">
+      <c r="EF16" t="s">
         <v>620</v>
       </c>
-      <c r="EF16" t="s">
+      <c r="EG16" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA16" t="s">
         <v>621</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA16" t="s">
-        <v>622</v>
       </c>
       <c r="GB16" t="s">
         <v>545</v>
@@ -5972,97 +5944,97 @@
         <v>542</v>
       </c>
       <c r="E17" t="s">
+        <v>622</v>
+      </c>
+      <c r="F17" t="s">
         <v>623</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>624</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>555</v>
+      </c>
+      <c r="I17" t="s">
+        <v>556</v>
+      </c>
+      <c r="K17" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>560</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>559</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK17" t="s">
         <v>625</v>
       </c>
-      <c r="H17" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>561</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>558</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>560</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>549</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BT17" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM17" t="s">
         <v>626</v>
       </c>
-      <c r="BL17" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM17" t="s">
+      <c r="CN17" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE17" t="s">
         <v>627</v>
       </c>
-      <c r="CN17" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE17" t="s">
+      <c r="EF17" t="s">
         <v>628</v>
       </c>
-      <c r="EF17" t="s">
+      <c r="EG17" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA17" t="s">
         <v>629</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH17" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO17" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP17" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA17" t="s">
-        <v>630</v>
       </c>
       <c r="GB17" t="s">
         <v>545</v>
@@ -6076,97 +6048,97 @@
         <v>542</v>
       </c>
       <c r="E18" t="s">
+        <v>630</v>
+      </c>
+      <c r="F18" t="s">
         <v>631</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>632</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>555</v>
+      </c>
+      <c r="I18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K18" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>612</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>562</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM18" t="s">
         <v>633</v>
       </c>
-      <c r="H18" t="s">
-        <v>556</v>
-      </c>
-      <c r="I18" t="s">
-        <v>557</v>
-      </c>
-      <c r="K18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>563</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>564</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM18" t="s">
+      <c r="CN18" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>627</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>628</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>568</v>
+      </c>
+      <c r="EH18" t="s">
+        <v>569</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>566</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>567</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>568</v>
+      </c>
+      <c r="EL18" t="s">
+        <v>569</v>
+      </c>
+      <c r="FO18" t="s">
+        <v>570</v>
+      </c>
+      <c r="FP18" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA18" t="s">
         <v>634</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE18" t="s">
-        <v>628</v>
-      </c>
-      <c r="EF18" t="s">
-        <v>629</v>
-      </c>
-      <c r="EG18" t="s">
-        <v>569</v>
-      </c>
-      <c r="EH18" t="s">
-        <v>570</v>
-      </c>
-      <c r="EI18" t="s">
-        <v>567</v>
-      </c>
-      <c r="EJ18" t="s">
-        <v>568</v>
-      </c>
-      <c r="EK18" t="s">
-        <v>569</v>
-      </c>
-      <c r="EL18" t="s">
-        <v>570</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>571</v>
-      </c>
-      <c r="FP18" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA18" t="s">
-        <v>635</v>
       </c>
       <c r="GB18" t="s">
         <v>545</v>

--- a/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E180B-2C59-584C-98A6-5CD6527BB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECD0861-B2B1-6442-8427-D8E74A422D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,7 +1711,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>16</t>
@@ -2290,7 +2290,7 @@
   <dimension ref="A1:HE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Judgments, dissenting opinions, and sentences_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECD0861-B2B1-6442-8427-D8E74A422D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53246813-BC67-5D4E-8B9F-D1D2612631D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2290,7 +2290,7 @@
   <dimension ref="A1:HE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
